--- a/DRSERVICE_2025/All_Dr_Service_Elbrit_Jun-2025.xlsx
+++ b/DRSERVICE_2025/All_Dr_Service_Elbrit_Jun-2025.xlsx
@@ -2120,7 +2120,7 @@
     <t xml:space="preserve">Mohammed haniff (E00459)</t>
   </si>
   <si>
-    <t xml:space="preserve">Vacant_Jagathish M (E01004)</t>
+    <t xml:space="preserve">J Niranjan (E01027)</t>
   </si>
   <si>
     <t xml:space="preserve">R.Vijadhiran(E00532)</t>
@@ -2135,7 +2135,7 @@
     <t xml:space="preserve">Arun kumarM(E00893)</t>
   </si>
   <si>
-    <t xml:space="preserve">Vacant_Varadharajan (E00376)</t>
+    <t xml:space="preserve">Nickson B (E01022)</t>
   </si>
   <si>
     <t xml:space="preserve">Kamala Kannan(E00978)</t>
@@ -2177,7 +2177,7 @@
     <t xml:space="preserve">Sathya.P(E00714)</t>
   </si>
   <si>
-    <t xml:space="preserve">Mohammed Abdul kadharN S(E00622)</t>
+    <t xml:space="preserve">Sathish Kumar U (E01021)</t>
   </si>
   <si>
     <t xml:space="preserve">Velmani (E00378)</t>
@@ -2933,7 +2933,7 @@
     <col min="8" max="8" width="12.14" customWidth="1"/>
     <col min="9" max="9" width="12.43" customWidth="1"/>
     <col min="10" max="10" width="5.29" customWidth="1"/>
-    <col min="11" max="11" width="30.43" customWidth="1"/>
+    <col min="11" max="11" width="25.29" customWidth="1"/>
     <col min="12" max="12" width="11.71" customWidth="1"/>
     <col min="13" max="13" width="10.86" customWidth="1"/>
     <col min="14" max="14" width="14.86" customWidth="1"/>
